--- a/PdPDM/PdPDM_ConfigTables.xlsx
+++ b/PdPDM/PdPDM_ConfigTables.xlsx
@@ -353,160 +353,160 @@
         <name val="华文细黑"/>
         <scheme val="none"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="华文细黑"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="华文细黑"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="华文细黑"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="华文细黑"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="华文细黑"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="华文细黑"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="华文细黑"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="华文细黑"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="华文细黑"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="华文细黑"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="华文细黑"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="华文细黑"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="华文细黑"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="华文细黑"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="华文细黑"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="华文细黑"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="华文细黑"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="华文细黑"/>
-        <scheme val="none"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -804,19 +804,19 @@
     <sortCondition ref="A2:A25"/>
   </sortState>
   <tableColumns count="11">
-    <tableColumn id="9" name="Index" dataDxfId="0">
+    <tableColumn id="9" name="Index" dataDxfId="10">
       <calculatedColumnFormula>IF(C2=C1,A1+1,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Default Name" dataDxfId="10"/>
-    <tableColumn id="8" name="Default Code" dataDxfId="9"/>
-    <tableColumn id="1" name="Column Name" dataDxfId="8"/>
-    <tableColumn id="2" name="Column Code" dataDxfId="7"/>
-    <tableColumn id="3" name="Data Type" dataDxfId="6"/>
-    <tableColumn id="4" name="PK" dataDxfId="5"/>
-    <tableColumn id="5" name="M" dataDxfId="4"/>
-    <tableColumn id="6" name="Comment" dataDxfId="3"/>
-    <tableColumn id="10" name="Description" dataDxfId="2"/>
-    <tableColumn id="11" name="Annotation" dataDxfId="1"/>
+    <tableColumn id="7" name="Default Name" dataDxfId="9"/>
+    <tableColumn id="8" name="Default Code" dataDxfId="8"/>
+    <tableColumn id="1" name="Column Name" dataDxfId="7"/>
+    <tableColumn id="2" name="Column Code" dataDxfId="6"/>
+    <tableColumn id="3" name="Data Type" dataDxfId="5"/>
+    <tableColumn id="4" name="PK" dataDxfId="4"/>
+    <tableColumn id="5" name="M" dataDxfId="3"/>
+    <tableColumn id="6" name="Comment" dataDxfId="2"/>
+    <tableColumn id="10" name="Description" dataDxfId="1"/>
+    <tableColumn id="11" name="Annotation" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1113,7 +1113,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.3"/>

--- a/PdPDM/PdPDM_ConfigTables.xlsx
+++ b/PdPDM/PdPDM_ConfigTables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7005"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="7008"/>
   </bookViews>
   <sheets>
     <sheet name="ConfigTables" sheetId="5" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="51">
   <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -119,7 +119,32 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DefaultColumns1</t>
+    <t>Config Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Config Code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当事人域</t>
+  </si>
+  <si>
+    <t>当事人</t>
+  </si>
+  <si>
+    <t>PARTY</t>
+  </si>
+  <si>
+    <t>CRUD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(64)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INTEGER</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -127,39 +152,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Config Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Config Code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当事人域</t>
-  </si>
-  <si>
-    <t>当事人</t>
-  </si>
-  <si>
-    <t>PARTY</t>
-  </si>
-  <si>
-    <t>CRUD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(64)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INTEGER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DefaultColumns</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>path</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -188,10 +180,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PhysicalOption</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>database</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -209,6 +197,22 @@
   </si>
   <si>
     <t>tablespace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DC1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DC1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -383,6 +387,23 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="华文细黑"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
         <color theme="1"/>
         <name val="华文细黑"/>
         <scheme val="none"/>
@@ -469,23 +490,6 @@
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <color theme="1"/>
-        <name val="华文细黑"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
         <name val="华文细黑"/>
         <scheme val="none"/>
       </font>
@@ -808,15 +812,15 @@
       <calculatedColumnFormula>IF(C2=C1,A1+1,1)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" name="Default Name" dataDxfId="9"/>
-    <tableColumn id="8" name="Default Code" dataDxfId="8"/>
-    <tableColumn id="1" name="Column Name" dataDxfId="7"/>
-    <tableColumn id="2" name="Column Code" dataDxfId="6"/>
-    <tableColumn id="3" name="Data Type" dataDxfId="5"/>
-    <tableColumn id="4" name="PK" dataDxfId="4"/>
-    <tableColumn id="5" name="M" dataDxfId="3"/>
-    <tableColumn id="6" name="Comment" dataDxfId="2"/>
-    <tableColumn id="10" name="Description" dataDxfId="1"/>
-    <tableColumn id="11" name="Annotation" dataDxfId="0"/>
+    <tableColumn id="8" name="Default Code" dataDxfId="0"/>
+    <tableColumn id="1" name="Column Name" dataDxfId="8"/>
+    <tableColumn id="2" name="Column Code" dataDxfId="7"/>
+    <tableColumn id="3" name="Data Type" dataDxfId="6"/>
+    <tableColumn id="4" name="PK" dataDxfId="5"/>
+    <tableColumn id="5" name="M" dataDxfId="4"/>
+    <tableColumn id="6" name="Comment" dataDxfId="3"/>
+    <tableColumn id="10" name="Description" dataDxfId="2"/>
+    <tableColumn id="11" name="Annotation" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1111,29 +1115,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="25.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="25.33203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="46.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="46.77734375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21" customWidth="1"/>
-    <col min="9" max="9" width="22.5" customWidth="1"/>
-    <col min="10" max="10" width="13.625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.25" style="1" customWidth="1"/>
+    <col min="9" max="9" width="22.44140625" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="6.21875" style="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.4">
       <c r="A1" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>1</v>
@@ -1145,39 +1149,39 @@
         <v>3</v>
       </c>
       <c r="E1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="C2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>32</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -1186,28 +1190,28 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>32</v>
-      </c>
       <c r="E3" s="4" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I3" s="1" t="str">
         <f>IF(ISNA(MATCH(表2_45[[#This Row],[Config Code]],DefaultColumns!C:C,0)),"",MATCH(表2_45[[#This Row],[Config Code]],DefaultColumns!C:C,0))</f>
@@ -1232,25 +1236,25 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.375" customWidth="1"/>
-    <col min="5" max="5" width="25.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" customWidth="1"/>
+    <col min="5" max="5" width="25.77734375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="8" style="1" customWidth="1"/>
     <col min="8" max="8" width="6" style="1" customWidth="1"/>
-    <col min="9" max="9" width="31.375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="20.125" customWidth="1"/>
-    <col min="11" max="11" width="27.75" customWidth="1"/>
+    <col min="9" max="9" width="31.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="20.109375" customWidth="1"/>
+    <col min="11" max="11" width="27.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1285,7 +1289,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
         <f t="shared" ref="A2:A6" si="0">IF(C2=C1,A1+1,1)</f>
         <v>1</v>
@@ -1294,7 +1298,7 @@
         <v>25</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>19</v>
@@ -1303,12 +1307,15 @@
         <v>13</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1</v>
       </c>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -1317,7 +1324,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>20</v>
@@ -1327,11 +1334,14 @@
       </c>
       <c r="F3" s="1" t="s">
         <v>18</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
       </c>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1340,7 +1350,7 @@
         <v>25</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>21</v>
@@ -1349,12 +1359,15 @@
         <v>15</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1363,7 +1376,7 @@
         <v>25</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>22</v>
@@ -1373,11 +1386,14 @@
       </c>
       <c r="F5" s="1" t="s">
         <v>18</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1386,7 +1402,7 @@
         <v>25</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>23</v>
@@ -1395,7 +1411,10 @@
         <v>17</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
@@ -1415,40 +1434,41 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" t="s">
         <v>45</v>
       </c>
-      <c r="B1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" t="s">
-        <v>38</v>
-      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" t="s">
         <v>46</v>
-      </c>
-      <c r="B2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
